--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33855C88-E413-E04A-A7AA-190387317F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1EB92-94DE-FC4F-83A5-085F20ED082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wheats" sheetId="1" r:id="rId1"/>
+    <sheet name="TEtools" sheetId="3" r:id="rId2"/>
+    <sheet name="Transposons" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Chrosome</t>
   </si>
@@ -600,9 +602,6 @@
     </r>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
@@ -618,9 +617,6 @@
     <t>WEWSeq</t>
   </si>
   <si>
-    <t>Chinese Spring</t>
-  </si>
-  <si>
     <t>Tu</t>
   </si>
   <si>
@@ -680,13 +676,244 @@
       </rPr>
       <t xml:space="preserve"> aegilpoides</t>
     </r>
+  </si>
+  <si>
+    <t>Chinese Spring/AK58</t>
+  </si>
+  <si>
+    <t>2018/2023</t>
+  </si>
+  <si>
+    <t>TE\Wheat</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>class II/DNA TE</t>
+  </si>
+  <si>
+    <t>Polinton</t>
+  </si>
+  <si>
+    <t>subclass 1</t>
+  </si>
+  <si>
+    <t>subclass 2</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>hHAT (DTA)</t>
+  </si>
+  <si>
+    <t>CACTA (DTC)</t>
+  </si>
+  <si>
+    <t>PIF/Harbinger (DTH)</t>
+  </si>
+  <si>
+    <t>Mutator (DTM)</t>
+  </si>
+  <si>
+    <t>Tcl/Mariner (DTT)</t>
+  </si>
+  <si>
+    <t>Crypton</t>
+  </si>
+  <si>
+    <t>Helitron</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class I/retroTE</t>
+  </si>
+  <si>
+    <t>LTR retroTE</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>Copia</t>
+  </si>
+  <si>
+    <t>Gypsy</t>
+  </si>
+  <si>
+    <t>Bel–Pao</t>
+  </si>
+  <si>
+    <t>Retrovirus</t>
+  </si>
+  <si>
+    <t>ERV</t>
+  </si>
+  <si>
+    <t>transposon</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>DIRS</t>
+  </si>
+  <si>
+    <t>Ngaro</t>
+  </si>
+  <si>
+    <t>VIPER</t>
+  </si>
+  <si>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>non-LTR retroTE</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Jockey</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>SINE</t>
+  </si>
+  <si>
+    <t>tRNA</t>
+  </si>
+  <si>
+    <t>7SL</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>Censor</t>
+  </si>
+  <si>
+    <t>PILER</t>
+  </si>
+  <si>
+    <t>INSurVeyor</t>
+  </si>
+  <si>
+    <t>RepeatModeler2</t>
+  </si>
+  <si>
+    <t>TIR-Learner</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>sample 1</t>
+  </si>
+  <si>
+    <t>sample 2</t>
+  </si>
+  <si>
+    <t>sample 3</t>
+  </si>
+  <si>
+    <t>TE annotation</t>
+  </si>
+  <si>
+    <t>MGEScan</t>
+  </si>
+  <si>
+    <t>MITE-Hunter</t>
+  </si>
+  <si>
+    <t>LTR_Finder</t>
+  </si>
+  <si>
+    <t>RECON</t>
+  </si>
+  <si>
+    <t>REPEATFinder</t>
+  </si>
+  <si>
+    <t>RepeatMasker</t>
+  </si>
+  <si>
+    <t>TEseeker</t>
+  </si>
+  <si>
+    <t>VariationHunter</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>BLAT</t>
+  </si>
+  <si>
+    <t>Structure based</t>
+  </si>
+  <si>
+    <t>Homology based</t>
+  </si>
+  <si>
+    <t>De novo</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Unix, online</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Shortcomings</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Comparative Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -719,6 +946,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -746,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,17 +993,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,20 +1337,21 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="19.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" customWidth="1"/>
-    <col min="7" max="8" width="16.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,190 +1371,197 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1319,4 +1575,514 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="18" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE5B75A-5A55-5E44-9B60-44093131A42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F534D6-79B3-0B45-BC6D-B6C17D9F5C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
     <sheet name="TEtools" sheetId="3" r:id="rId2"/>
     <sheet name="Transposons" sheetId="2" r:id="rId3"/>
+    <sheet name="reference genome annotation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="219">
   <si>
     <t>Chrosome</t>
   </si>
@@ -939,9 +940,6 @@
     <t>hAT</t>
   </si>
   <si>
-    <t>CACTA</t>
-  </si>
-  <si>
     <t>DTC</t>
   </si>
   <si>
@@ -957,12 +955,6 @@
     <t>PIF/Harbinger</t>
   </si>
   <si>
-    <t>Mutator</t>
-  </si>
-  <si>
-    <t>Tcl/Mariner</t>
-  </si>
-  <si>
     <t>DHH</t>
   </si>
   <si>
@@ -1014,26 +1006,80 @@
     <t>CLARI-TE</t>
   </si>
   <si>
-    <t>En-Spm</t>
-  </si>
-  <si>
-    <t>MuDR</t>
-  </si>
-  <si>
-    <t>Pogo</t>
-  </si>
-  <si>
-    <t>Tc1</t>
-  </si>
-  <si>
-    <t>LINE?</t>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>TE Annotation</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>sweet orange</t>
+  </si>
+  <si>
+    <t>somatic variation, asexual propagation</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Tc1/Mariner, Pogo</t>
+  </si>
+  <si>
+    <t>CACTA (En-Spm)</t>
+  </si>
+  <si>
+    <t>Mutator (MULE, MuDR)</t>
+  </si>
+  <si>
+    <t>97 - 735</t>
+  </si>
+  <si>
+    <t>247 - 1194</t>
+  </si>
+  <si>
+    <t>369097 - 1095976</t>
+  </si>
+  <si>
+    <t>2209 - 48828</t>
+  </si>
+  <si>
+    <t>4922 - 95785</t>
+  </si>
+  <si>
+    <t>644 - 184898</t>
+  </si>
+  <si>
+    <t>2829 - 108199</t>
+  </si>
+  <si>
+    <t>971 - 12509</t>
+  </si>
+  <si>
+    <t>9597 - 109873</t>
+  </si>
+  <si>
+    <t>146393 - 596077</t>
+  </si>
+  <si>
+    <t>337081 - 1586131</t>
+  </si>
+  <si>
+    <t>14282 - 147763</t>
+  </si>
+  <si>
+    <t>8071 - 285813</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,6 +1118,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1099,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,13 +1226,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1587,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1834,7 +1957,7 @@
         <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>88</v>
@@ -1878,10 +2001,10 @@
         <v>125</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2018,568 +2141,642 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="13.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="18"/>
+    <col min="4" max="4" width="20.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6" t="s">
+      <c r="F3" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6" t="s">
+      <c r="F7" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15" t="s">
+      <c r="F14" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="D16" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="D17" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="D18" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>186</v>
+      <c r="F38" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="A21:A42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="A17:A37"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093E3621-598C-4746-ADA1-87B9F83FEE6E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F534D6-79B3-0B45-BC6D-B6C17D9F5C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF6F62-505D-A044-900A-EDB7B9606308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="226">
   <si>
     <t>Chrosome</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>somatic variation, asexual propagation</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>Tc1/Mariner, Pogo</t>
   </si>
   <si>
@@ -1073,6 +1070,30 @@
   </si>
   <si>
     <t>8071 - 285813</t>
+  </si>
+  <si>
+    <t>Transposon_Name orientation_is_5prime   Transposon_min_Start    Transposon_max_End      Transposon_Family       Transposon_Super_Family</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TAIR10</t>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>jimai44</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>bpMasked</t>
+  </si>
+  <si>
+    <t>%masked</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,19 +1233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1240,22 +1248,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1267,8 +1263,39 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1666,22 +1693,22 @@
       <c r="H2" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1707,9 +1734,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
@@ -1733,8 +1760,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1749,10 +1776,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
@@ -1773,12 +1800,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>109</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1789,10 +1816,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4" t="s">
         <v>144</v>
       </c>
@@ -1810,10 +1837,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>96</v>
       </c>
@@ -1825,8 +1852,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
         <v>98</v>
       </c>
@@ -1838,8 +1865,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
         <v>103</v>
       </c>
@@ -1852,18 +1879,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="22" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1874,14 +1901,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="3" t="s">
         <v>91</v>
       </c>
@@ -1916,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1991,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1978,8 +2005,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1990,8 +2017,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2008,7 +2035,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
@@ -2020,7 +2047,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2034,7 +2061,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
@@ -2046,7 +2073,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
@@ -2058,7 +2085,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="20" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2074,7 +2101,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
@@ -2086,7 +2113,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2098,7 +2125,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
@@ -2141,567 +2168,729 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="18"/>
-    <col min="4" max="4" width="20.83203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="13.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="20.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="13">
+        <v>101373</v>
+      </c>
+      <c r="H3" s="13">
+        <v>41014659</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1712031</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2232934539</v>
+      </c>
+      <c r="I5" s="13">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="13">
+        <v>178793</v>
+      </c>
+      <c r="H7" s="13">
+        <v>85448253</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="13">
+        <v>320703</v>
+      </c>
+      <c r="H8" s="13">
+        <v>148536409</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1.02</v>
+      </c>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23" t="s">
+      <c r="E11" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="13">
+        <v>539870</v>
+      </c>
+      <c r="H11" s="13">
+        <v>188318911</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="13">
+        <v>100192</v>
+      </c>
+      <c r="H12" s="13">
+        <v>26071478</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="27" t="s">
+      <c r="G14" s="13">
+        <v>266169</v>
+      </c>
+      <c r="H14" s="13">
+        <v>125618422</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+      <c r="G16" s="13">
+        <v>13011</v>
+      </c>
+      <c r="H16" s="13">
+        <v>9350268</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="29">
+        <v>788489</v>
+      </c>
+      <c r="H17" s="29">
+        <v>2347859917</v>
+      </c>
+      <c r="I17" s="29">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1975106</v>
+      </c>
+      <c r="H18" s="29">
+        <v>6455016749</v>
+      </c>
+      <c r="I18" s="29">
+        <v>44.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="26" t="s">
+      <c r="E22" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="29">
+        <v>371387</v>
+      </c>
+      <c r="H22" s="29">
+        <v>657665026</v>
+      </c>
+      <c r="I22" s="29">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E32" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="15" t="s">
+      <c r="G32" s="13">
+        <v>99861</v>
+      </c>
+      <c r="H32" s="13">
+        <v>78239506</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="E36" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="17">
+        <v>6591</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1265021</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>218</v>
+      <c r="G38" s="13">
+        <v>760109</v>
+      </c>
+      <c r="H38" s="13">
+        <v>362123519</v>
+      </c>
+      <c r="I38" s="13">
+        <v>2.4900000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C17:C22"/>
+  <mergeCells count="19">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B13"/>
@@ -2713,6 +2902,14 @@
     <mergeCell ref="B33:C36"/>
     <mergeCell ref="A17:A37"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2721,16 +2918,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093E3621-598C-4746-ADA1-87B9F83FEE6E}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="8"/>
     <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="8" customWidth="1"/>
@@ -2739,41 +2936,58 @@
     <col min="10" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="J1" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFF6F62-505D-A044-900A-EDB7B9606308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9096D1BE-A6D3-5C48-A7F9-F6CC3A15D081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="3" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="246">
   <si>
     <t>Chrosome</t>
   </si>
@@ -448,9 +448,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Operating System</t>
-  </si>
-  <si>
     <t>BLAT</t>
   </si>
   <si>
@@ -463,12 +460,6 @@
     <t>De novo</t>
   </si>
   <si>
-    <t>Unix</t>
-  </si>
-  <si>
-    <t>Unix, online</t>
-  </si>
-  <si>
     <t>Advantages</t>
   </si>
   <si>
@@ -1000,9 +991,6 @@
     <t>https://github.com/jdaron/CLARI-TE</t>
   </si>
   <si>
-    <t>post process</t>
-  </si>
-  <si>
     <t>CLARI-TE</t>
   </si>
   <si>
@@ -1094,6 +1082,124 @@
   </si>
   <si>
     <t>%masked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">an efficient program for finding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full-length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LTR retrotranspsons in genome sequences</t>
+    </r>
+  </si>
+  <si>
+    <t>LTR_retriever</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/LTR_FINDER_parallel</t>
+  </si>
+  <si>
+    <t>LTRharvest</t>
+  </si>
+  <si>
+    <t>https://genometools.org/pub/binary_distributions/gt-1.6.2-Linux_x86_64-64bit-complete.tar.gz</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>GenomeTools</t>
+  </si>
+  <si>
+    <t>Generic Repeat Finder</t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>terminal inverted repeats (TIRs), terminal direct repeats (TDRs), interspersed repeats, miniature inverted repeat transposable elements (MITEs), and long terminal repeat (LTR) transposons</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/LTR_retriever</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/EDTA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EDTA (The Extensive </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">de novo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TE Annotator)</t>
+    </r>
+  </si>
+  <si>
+    <t>C++ program package</t>
+  </si>
+  <si>
+    <t>high accurate and sensitive</t>
+  </si>
+  <si>
+    <t>https://github.com/bioinfolabmu/GenericRepeatFinder</t>
+  </si>
+  <si>
+    <t>open-source ensemble method, Generic Repeat Finder is used in TIR-Learner as the search engine.</t>
+  </si>
+  <si>
+    <t>https://github.com/WeijiaSu/TIR-Learner-Rice</t>
+  </si>
+  <si>
+    <t>Java program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HelitronScanner </t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/helitronscanner/</t>
+  </si>
+  <si>
+    <t>Tesorter</t>
+  </si>
+  <si>
+    <t>accurate classification of TEs</t>
   </si>
 </sst>
 </file>
@@ -1263,6 +1369,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1276,25 +1394,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1644,22 +1750,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>68</v>
@@ -1679,89 +1785,89 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K3" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="K4" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1776,58 +1882,58 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K6" s="3">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>109</v>
+      <c r="D7" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>22</v>
@@ -1837,41 +1943,41 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
@@ -1879,41 +1985,41 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>104</v>
+      <c r="D12" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K12" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="F13" s="24"/>
       <c r="G13" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1941,27 +2047,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="18.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1969,198 +2073,245 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="27" t="s">
+      <c r="E2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27" t="s">
+      <c r="E3" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="E4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>80</v>
+      <c r="E5" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="D6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="E7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>82</v>
+      <c r="E8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="E9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
       <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="E10" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="E11" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>89</v>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2170,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2188,61 +2339,61 @@
     <col min="10" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>65</v>
@@ -2262,26 +2413,26 @@
       <c r="O2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="24"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G3" s="13">
         <v>101373</v>
@@ -2294,29 +2445,29 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="G5" s="13">
         <v>1712031</v>
@@ -2329,29 +2480,29 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" s="13">
         <v>178793</v>
@@ -2364,17 +2515,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G8" s="13">
         <v>320703</v>
@@ -2385,46 +2536,46 @@
       <c r="I8" s="13">
         <v>1.02</v>
       </c>
-      <c r="L8" s="29"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="L9" s="29"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="L10" s="29"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G11" s="13">
         <v>539870</v>
@@ -2437,17 +2588,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G12" s="13">
         <v>100192</v>
@@ -2460,8 +2611,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
@@ -2469,13 +2620,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -2485,10 +2636,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G14" s="13">
         <v>266169</v>
@@ -2501,8 +2652,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
@@ -2510,24 +2661,24 @@
         <v>33</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="13">
         <v>13011</v>
@@ -2540,157 +2691,157 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="29">
+        <v>210</v>
+      </c>
+      <c r="G17" s="21">
         <v>788489</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="21">
         <v>2347859917</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="21">
         <v>16.13</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="29">
+        <v>211</v>
+      </c>
+      <c r="G18" s="21">
         <v>1975106</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="21">
         <v>6455016749</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="21">
         <v>44.34</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="21">
+        <v>371387</v>
+      </c>
+      <c r="H22" s="21">
+        <v>657665026</v>
+      </c>
+      <c r="I22" s="21">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="10" t="s">
+      <c r="E23" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="29">
-        <v>371387</v>
-      </c>
-      <c r="H22" s="29">
-        <v>657665026</v>
-      </c>
-      <c r="I22" s="29">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
@@ -2698,86 +2849,86 @@
         <v>48</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>165</v>
-      </c>
       <c r="F32" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G32" s="13">
         <v>99861</v>
@@ -2790,52 +2941,52 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="10" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="17">
@@ -2849,35 +3000,35 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="25"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="28"/>
       <c r="D37" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="25"/>
+        <v>166</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="28"/>
       <c r="D38" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G38" s="13">
         <v>760109</v>
@@ -2891,6 +3042,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B13"/>
@@ -2902,14 +3061,6 @@
     <mergeCell ref="B33:C36"/>
     <mergeCell ref="A17:A37"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2920,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093E3621-598C-4746-ADA1-87B9F83FEE6E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2941,50 +3092,50 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>221</v>
+      <c r="A3" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J3" s="8">
         <v>2019</v>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9096D1BE-A6D3-5C48-A7F9-F6CC3A15D081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9CAB9-78F6-4D44-871E-8260BACBD2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="3" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="258">
   <si>
     <t>Chrosome</t>
   </si>
@@ -433,24 +433,12 @@
     <t>RECON</t>
   </si>
   <si>
-    <t>REPEATFinder</t>
-  </si>
-  <si>
     <t>RepeatMasker</t>
   </si>
   <si>
-    <t>TEseeker</t>
-  </si>
-  <si>
-    <t>VariationHunter</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>BLAT</t>
-  </si>
-  <si>
     <t>Structure based</t>
   </si>
   <si>
@@ -472,9 +460,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>Comparative Genomic</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
@@ -700,39 +685,9 @@
     <t>reference genome</t>
   </si>
   <si>
-    <t>http://www.girinst.org/censor/download.php</t>
-  </si>
-  <si>
-    <t>http://users.soe.ucsc.edu/~kent/src/</t>
-  </si>
-  <si>
-    <t>http://tlife.fudan.edu.cn/ltr__x001C_nder/</t>
-  </si>
-  <si>
-    <t>http://darwin.informatics.indiana.edu/cgi-bin/ evolution/nonltr/nonltr.pl</t>
-  </si>
-  <si>
-    <t>http://target.iplantcollaborative.org/mite_ hunter.html</t>
-  </si>
-  <si>
     <t>http://www.drive5.com/piler/</t>
   </si>
   <si>
-    <t>http://selab.janelia.org/recon.html</t>
-  </si>
-  <si>
-    <t>http://cbcb.umd.edu/software/RepeatFinder/</t>
-  </si>
-  <si>
-    <t>http://www.repeatmasker.org/</t>
-  </si>
-  <si>
-    <t>http://repository.library.nd.edu/view/16/index. html</t>
-  </si>
-  <si>
-    <t>http://compbio.cs.sfu.ca/strvar.html</t>
-  </si>
-  <si>
     <t>TA299</t>
   </si>
   <si>
@@ -1140,12 +1095,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>https://github.com/oushujun/LTR_retriever</t>
-  </si>
-  <si>
-    <t>https://github.com/oushujun/EDTA</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">EDTA (The Extensive </t>
     </r>
@@ -1178,9 +1127,6 @@
     <t>high accurate and sensitive</t>
   </si>
   <si>
-    <t>https://github.com/bioinfolabmu/GenericRepeatFinder</t>
-  </si>
-  <si>
     <t>open-source ensemble method, Generic Repeat Finder is used in TIR-Learner as the search engine.</t>
   </si>
   <si>
@@ -1200,6 +1146,96 @@
   </si>
   <si>
     <t>accurate classification of TEs</t>
+  </si>
+  <si>
+    <t>http://target.iplantcollaborative.org/mite_hunter/MITE%20Hunter-11-2011.zip</t>
+  </si>
+  <si>
+    <t>http://target.iplantcollaborative.org/mite_hunter.html</t>
+  </si>
+  <si>
+    <t>https://www.girinst.org/downloads/software/censor/protected/censor-4.2.30.tar.gz</t>
+  </si>
+  <si>
+    <t>https://www.girinst.org/downloads/software/censor/</t>
+  </si>
+  <si>
+    <t>4.2.30</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatMasker/RepeatMasker-4.1.6.tar.gz</t>
+  </si>
+  <si>
+    <t>4.1.6</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatMasker/</t>
+  </si>
+  <si>
+    <t>LTR_FINDER_parallel, LTR_FINDER-1.0.7</t>
+  </si>
+  <si>
+    <t>MITE-Hunter Scripts</t>
+  </si>
+  <si>
+    <t>https://mgescan.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://github.com/MGEScan/mgescan/archive/refs/tags/1.1.tar.gz</t>
+  </si>
+  <si>
+    <t>http://www.drive5.com/piler/piler_source.tar.gz</t>
+  </si>
+  <si>
+    <t>http://eddylab.org/software/recon/RECON1.05.tar.gz</t>
+  </si>
+  <si>
+    <t>http://eddylab.org/software/recon/</t>
+  </si>
+  <si>
+    <t>v1.11</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/LTR_retriever/archive/refs/tags/v2.9.8.tar.gz</t>
+  </si>
+  <si>
+    <t>v2.9.8</t>
+  </si>
+  <si>
+    <t>https://github.com/Dfam-consortium/RepeatModeler/archive/refs/tags/2.0.5.tar.gz</t>
+  </si>
+  <si>
+    <t>RepeatModeler 2.0.5</t>
+  </si>
+  <si>
+    <t>https://www.repeatmasker.org/RepeatModeler/</t>
+  </si>
+  <si>
+    <t>https://github.com/kensung-lab/INSurVeyor/archive/refs/tags/1.1.2.tar.gz</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>v1.0.2</t>
+  </si>
+  <si>
+    <t>https://github.com/bioinfolabmu/GenericRepeatFinder/archive/refs/tags/v1.0.2.tar.gz</t>
+  </si>
+  <si>
+    <t>big update to v2.2.0</t>
+  </si>
+  <si>
+    <t>https://github.com/oushujun/EDTA/archive/refs/tags/v2.2.0.tar.gz</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>v1.4.6</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangrengang/TEsorter/archive/refs/tags/v1.4.6.tar.gz</t>
   </si>
 </sst>
 </file>
@@ -1327,9 +1363,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1369,9 +1402,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1391,9 +1421,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1402,6 +1429,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,22 +1786,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>68</v>
@@ -1785,89 +1821,89 @@
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="21"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K3" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K4" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1882,58 +1918,58 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K6" s="3">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>106</v>
+      <c r="D7" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>22</v>
@@ -1943,41 +1979,41 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
@@ -1985,41 +2021,41 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>101</v>
+      <c r="D12" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K12" s="3">
         <v>2023</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2047,271 +2083,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="30"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="153" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>245</v>
+      <c r="F18" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
+  <mergeCells count="5">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2327,716 +2395,716 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="13"/>
-    <col min="4" max="4" width="20.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="4" max="4" width="20.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="12">
+        <v>101373</v>
+      </c>
+      <c r="H3" s="12">
+        <v>41014659</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1712031</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2232934539</v>
+      </c>
+      <c r="I5" s="12">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="12">
+        <v>178793</v>
+      </c>
+      <c r="H7" s="12">
+        <v>85448253</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="12">
+        <v>320703</v>
+      </c>
+      <c r="H8" s="12">
+        <v>148536409</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="12">
+        <v>539870</v>
+      </c>
+      <c r="H11" s="12">
+        <v>188318911</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="12">
+        <v>100192</v>
+      </c>
+      <c r="H12" s="12">
+        <v>26071478</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="12">
+        <v>266169</v>
+      </c>
+      <c r="H14" s="12">
+        <v>125618422</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="12">
+        <v>13011</v>
+      </c>
+      <c r="H16" s="12">
+        <v>9350268</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="19">
+        <v>788489</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2347859917</v>
+      </c>
+      <c r="I17" s="19">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1975106</v>
+      </c>
+      <c r="H18" s="19">
+        <v>6455016749</v>
+      </c>
+      <c r="I18" s="19">
+        <v>44.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="19">
+        <v>371387</v>
+      </c>
+      <c r="H22" s="19">
+        <v>657665026</v>
+      </c>
+      <c r="I22" s="19">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="13">
-        <v>101373</v>
-      </c>
-      <c r="H3" s="13">
-        <v>41014659</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1712031</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2232934539</v>
-      </c>
-      <c r="I5" s="13">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="13">
-        <v>178793</v>
-      </c>
-      <c r="H7" s="13">
-        <v>85448253</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="13">
-        <v>320703</v>
-      </c>
-      <c r="H8" s="13">
-        <v>148536409</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1.02</v>
-      </c>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="15" t="s">
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="12">
+        <v>99861</v>
+      </c>
+      <c r="H32" s="12">
+        <v>78239506</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16">
+        <v>6591</v>
+      </c>
+      <c r="H36" s="16">
+        <v>1265021</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="13">
-        <v>539870</v>
-      </c>
-      <c r="H11" s="13">
-        <v>188318911</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G12" s="13">
-        <v>100192</v>
-      </c>
-      <c r="H12" s="13">
-        <v>26071478</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="13">
-        <v>266169</v>
-      </c>
-      <c r="H14" s="13">
-        <v>125618422</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="13">
-        <v>13011</v>
-      </c>
-      <c r="H16" s="13">
-        <v>9350268</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="21">
-        <v>788489</v>
-      </c>
-      <c r="H17" s="21">
-        <v>2347859917</v>
-      </c>
-      <c r="I17" s="21">
-        <v>16.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="21">
-        <v>1975106</v>
-      </c>
-      <c r="H18" s="21">
-        <v>6455016749</v>
-      </c>
-      <c r="I18" s="21">
-        <v>44.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="21">
-        <v>371387</v>
-      </c>
-      <c r="H22" s="21">
-        <v>657665026</v>
-      </c>
-      <c r="I22" s="21">
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="13">
-        <v>99861</v>
-      </c>
-      <c r="H32" s="13">
-        <v>78239506</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="17">
-        <v>6591</v>
-      </c>
-      <c r="H36" s="17">
-        <v>1265021</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>760109</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>362123519</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -3071,73 +3139,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093E3621-598C-4746-ADA1-87B9F83FEE6E}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8"/>
-    <col min="5" max="5" width="16.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="12.5" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="2" width="18" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="16.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>215</v>
+      <c r="B1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>197</v>
+      <c r="A2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="A3" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="7">
         <v>2019</v>
       </c>
     </row>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9CAB9-78F6-4D44-871E-8260BACBD2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD774D8-2142-C046-93F0-20E011F17066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
     <sheet name="TEtools" sheetId="3" r:id="rId2"/>
     <sheet name="Transposons" sheetId="2" r:id="rId3"/>
-    <sheet name="reference genome annotation" sheetId="4" r:id="rId4"/>
+    <sheet name="curated TE library" sheetId="5" r:id="rId4"/>
+    <sheet name="reference genome annotation" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="269">
   <si>
     <t>Chrosome</t>
   </si>
@@ -1236,6 +1237,39 @@
   </si>
   <si>
     <t>https://github.com/zhangrengang/TEsorter/archive/refs/tags/v1.4.6.tar.gz</t>
+  </si>
+  <si>
+    <t>Count now</t>
+  </si>
+  <si>
+    <t>trf</t>
+  </si>
+  <si>
+    <t>Aegilops tauschii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>Triticum durum</t>
+  </si>
+  <si>
+    <t>Triticum monococcum</t>
+  </si>
+  <si>
+    <t>Triticum unknown</t>
+  </si>
+  <si>
+    <t>Triticum urartu</t>
+  </si>
+  <si>
+    <t>TREP</t>
   </si>
 </sst>
 </file>
@@ -1411,6 +1445,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1421,23 +1458,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,7 +1790,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,22 +1869,22 @@
       <c r="H2" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1876,9 +1910,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
@@ -1902,8 +1936,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1918,10 +1952,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
@@ -1942,12 +1976,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1958,10 +1992,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
@@ -1979,10 +2013,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>88</v>
       </c>
@@ -1994,8 +2028,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
@@ -2007,8 +2041,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
@@ -2021,18 +2055,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2043,14 +2077,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
@@ -2083,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2096,8 +2130,8 @@
     <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24" style="3" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="21" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -2128,256 +2162,271 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="21" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="30"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="28" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="21" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="21" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>228</v>
+        <v>208</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>77</v>
-      </c>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
       <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F14" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G14" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F15" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G15" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F16" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G16" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="17" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D17" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E17" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F17" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
+    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G18" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F19" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G19" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>257</v>
-      </c>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
@@ -2387,10 +2436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,40 +2451,42 @@
     <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
     <col min="6" max="6" width="17" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" customWidth="1"/>
-    <col min="9" max="9" width="11" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="12"/>
+    <col min="8" max="8" width="12.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2458,39 +2509,42 @@
         <v>204</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2505,17 +2559,18 @@
       <c r="G3" s="12">
         <v>101373</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="29"/>
+      <c r="I3" s="12">
         <v>41014659</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="9" t="s">
         <v>172</v>
       </c>
@@ -2523,11 +2578,12 @@
         <v>173</v>
       </c>
       <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2540,17 +2596,18 @@
       <c r="G5" s="12">
         <v>1712031</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="29"/>
+      <c r="I5" s="12">
         <v>2232934539</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>15.34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2558,11 +2615,12 @@
         <v>167</v>
       </c>
       <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2575,17 +2633,18 @@
       <c r="G7" s="12">
         <v>178793</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="29"/>
+      <c r="I7" s="12">
         <v>85448253</v>
       </c>
-      <c r="I7" s="12">
+      <c r="J7" s="12">
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14" t="s">
         <v>185</v>
       </c>
@@ -2598,18 +2657,19 @@
       <c r="G8" s="12">
         <v>320703</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="29"/>
+      <c r="I8" s="12">
         <v>148536409</v>
       </c>
-      <c r="I8" s="12">
+      <c r="J8" s="12">
         <v>1.02</v>
       </c>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="9" t="s">
         <v>170</v>
       </c>
@@ -2617,12 +2677,13 @@
         <v>171</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="H9" s="29"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="9" t="s">
         <v>168</v>
       </c>
@@ -2630,12 +2691,13 @@
         <v>169</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="H10" s="29"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="14" t="s">
         <v>183</v>
       </c>
@@ -2648,17 +2710,18 @@
       <c r="G11" s="12">
         <v>539870</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="29"/>
+      <c r="I11" s="12">
         <v>188318911</v>
       </c>
-      <c r="I11" s="12">
+      <c r="J11" s="12">
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="17" t="s">
         <v>134</v>
       </c>
@@ -2671,16 +2734,24 @@
       <c r="G12" s="12">
         <v>100192</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="29"/>
+      <c r="I12" s="12">
         <v>26071478</v>
       </c>
-      <c r="I12" s="12">
+      <c r="J12" s="12">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="12" t="s">
         <v>31</v>
       </c>
@@ -2691,10 +2762,17 @@
         <v>162</v>
       </c>
       <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2712,16 +2790,25 @@
       <c r="G14" s="12">
         <v>266169</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>125618422</v>
       </c>
-      <c r="I14" s="12">
+      <c r="J14" s="12">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -2732,13 +2819,22 @@
         <v>163</v>
       </c>
       <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="16" t="s">
         <v>134</v>
       </c>
@@ -2751,21 +2847,30 @@
       <c r="G16" s="12">
         <v>13011</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>9350268</v>
       </c>
-      <c r="I16" s="12">
+      <c r="J16" s="12">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2780,17 +2885,27 @@
       <c r="G17" s="19">
         <v>788489</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="30"/>
+      <c r="I17" s="19">
         <v>2347859917</v>
       </c>
-      <c r="I17" s="19">
+      <c r="J17" s="19">
         <v>16.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="14" t="s">
         <v>39</v>
       </c>
@@ -2803,17 +2918,27 @@
       <c r="G18" s="19">
         <v>1975106</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="30"/>
+      <c r="I18" s="19">
         <v>6455016749</v>
       </c>
-      <c r="I18" s="19">
+      <c r="J18" s="19">
         <v>44.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
@@ -2821,11 +2946,23 @@
         <v>131</v>
       </c>
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="H19" s="30"/>
+      <c r="N19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
@@ -2833,11 +2970,23 @@
         <v>132</v>
       </c>
       <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="H20" s="30"/>
+      <c r="N20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
@@ -2845,11 +2994,23 @@
         <v>133</v>
       </c>
       <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="H21" s="30"/>
+      <c r="N21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="9" t="s">
         <v>134</v>
       </c>
@@ -2862,17 +3023,29 @@
       <c r="G22" s="19">
         <v>371387</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="30"/>
+      <c r="I22" s="19">
         <v>657665026</v>
       </c>
-      <c r="I22" s="19">
+      <c r="J22" s="19">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25" t="s">
+      <c r="N22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2882,11 +3055,22 @@
         <v>137</v>
       </c>
       <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="N23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="9" t="s">
         <v>45</v>
       </c>
@@ -2894,11 +3078,22 @@
         <v>138</v>
       </c>
       <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="N24" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="9" t="s">
         <v>46</v>
       </c>
@@ -2906,10 +3101,21 @@
         <v>139</v>
       </c>
       <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="N25" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="12" t="s">
         <v>47</v>
       </c>
@@ -2920,13 +3126,24 @@
         <v>140</v>
       </c>
       <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+      <c r="N26" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -2936,11 +3153,22 @@
         <v>141</v>
       </c>
       <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="N27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="9" t="s">
         <v>52</v>
       </c>
@@ -2948,11 +3176,22 @@
         <v>142</v>
       </c>
       <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="N28" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
@@ -2960,11 +3199,22 @@
         <v>143</v>
       </c>
       <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="N29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="14" t="s">
         <v>54</v>
       </c>
@@ -2972,11 +3222,22 @@
         <v>144</v>
       </c>
       <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="N30" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="9" t="s">
         <v>146</v>
       </c>
@@ -2984,11 +3245,22 @@
         <v>145</v>
       </c>
       <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="N31" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="15" t="s">
         <v>134</v>
       </c>
@@ -3001,19 +3273,30 @@
       <c r="G32" s="12">
         <v>99861</v>
       </c>
-      <c r="H32" s="12">
+      <c r="I32" s="12">
         <v>78239506</v>
       </c>
-      <c r="I32" s="12">
+      <c r="J32" s="12">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
+      <c r="N32" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="9" t="s">
         <v>56</v>
       </c>
@@ -3021,11 +3304,20 @@
         <v>148</v>
       </c>
       <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="9" t="s">
         <v>57</v>
       </c>
@@ -3033,11 +3325,20 @@
         <v>149</v>
       </c>
       <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
       </c>
@@ -3045,11 +3346,20 @@
         <v>150</v>
       </c>
       <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="9" t="s">
         <v>134</v>
       </c>
@@ -3060,19 +3370,29 @@
       <c r="G36" s="16">
         <v>6591</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="16"/>
+      <c r="I36" s="16">
         <v>1265021</v>
       </c>
-      <c r="I36" s="16">
+      <c r="J36" s="16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25" t="s">
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="9" t="s">
         <v>134</v>
       </c>
@@ -3080,15 +3400,24 @@
         <v>153</v>
       </c>
       <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="17" t="s">
         <v>134</v>
       </c>
@@ -3101,23 +3430,15 @@
       <c r="G38" s="12">
         <v>760109</v>
       </c>
-      <c r="H38" s="12">
+      <c r="I38" s="12">
         <v>362123519</v>
       </c>
-      <c r="I38" s="12">
+      <c r="J38" s="12">
         <v>2.4900000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="A3:A16"/>
     <mergeCell ref="B3:B13"/>
@@ -3129,13 +3450,112 @@
     <mergeCell ref="B33:C36"/>
     <mergeCell ref="A17:A37"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19502A9-FB38-5841-8BC1-FF47C4C2E941}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="19.33203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093E3621-598C-4746-ADA1-87B9F83FEE6E}">
   <dimension ref="A1:J3"/>
   <sheetViews>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD774D8-2142-C046-93F0-20E011F17066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3A34C-6729-0845-9B62-4DFF60F3C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="275">
   <si>
     <t>Chrosome</t>
   </si>
@@ -1271,12 +1271,30 @@
   <si>
     <t>TREP</t>
   </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>729247 230770</t>
+  </si>
+  <si>
+    <t>Sola1</t>
+  </si>
+  <si>
+    <t>pararetrovirus</t>
+  </si>
+  <si>
+    <t>1767010 DNA/CMC-EnSpm: 8</t>
+  </si>
+  <si>
+    <t>Maverick (polinton)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1356,6 +1374,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1383,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,6 +1473,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1458,20 +1489,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1869,22 +1909,22 @@
       <c r="H2" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1910,9 +1950,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
@@ -1936,8 +1976,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1952,10 +1992,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
@@ -1976,12 +2016,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1992,10 +2032,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
@@ -2013,10 +2053,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>88</v>
       </c>
@@ -2028,8 +2068,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
@@ -2041,8 +2081,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
@@ -2055,18 +2095,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="27" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2077,14 +2117,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
@@ -2117,10 +2157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FBD11E-9936-2247-B360-EF554E9FE5CB}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2162,7 +2202,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2179,11 +2219,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="26" t="s">
         <v>235</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -2194,9 +2234,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="21" t="s">
         <v>176</v>
       </c>
@@ -2205,7 +2245,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2222,7 +2262,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
         <v>208</v>
       </c>
@@ -2237,7 +2277,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
         <v>226</v>
       </c>
@@ -2252,7 +2292,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>214</v>
       </c>
@@ -2270,7 +2310,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>259</v>
       </c>
@@ -2278,7 +2318,7 @@
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
@@ -2293,7 +2333,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2310,7 +2350,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
@@ -2322,7 +2362,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
@@ -2334,7 +2374,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -2390,37 +2430,41 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2436,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N32"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2458,31 +2502,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2535,16 +2579,16 @@
       <c r="P2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="26"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2559,7 +2603,9 @@
       <c r="G3" s="12">
         <v>101373</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="34">
+        <v>62249</v>
+      </c>
       <c r="I3" s="12">
         <v>41014659</v>
       </c>
@@ -2568,9 +2614,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="9" t="s">
         <v>172</v>
       </c>
@@ -2578,12 +2624,12 @@
         <v>173</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2596,7 +2642,9 @@
       <c r="G5" s="12">
         <v>1712031</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="19" t="s">
+        <v>273</v>
+      </c>
       <c r="I5" s="12">
         <v>2232934539</v>
       </c>
@@ -2605,9 +2653,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2615,12 +2663,12 @@
         <v>167</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2633,7 +2681,9 @@
       <c r="G7" s="12">
         <v>178793</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="34">
+        <v>178300</v>
+      </c>
       <c r="I7" s="12">
         <v>85448253</v>
       </c>
@@ -2642,9 +2692,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="14" t="s">
         <v>185</v>
       </c>
@@ -2657,7 +2707,9 @@
       <c r="G8" s="12">
         <v>320703</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="34">
+        <v>283964</v>
+      </c>
       <c r="I8" s="12">
         <v>148536409</v>
       </c>
@@ -2667,9 +2719,9 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="9" t="s">
         <v>170</v>
       </c>
@@ -2677,124 +2729,101 @@
         <v>171</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="19"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="12">
+        <v>28</v>
+      </c>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="12">
+        <v>51</v>
+      </c>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="H10" s="29"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="14" t="s">
+      <c r="F12" s="12"/>
+      <c r="H12" s="22"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G13" s="12">
         <v>539870</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="12">
+      <c r="H13" s="34">
+        <v>450050</v>
+      </c>
+      <c r="I13" s="12">
         <v>188318911</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J13" s="12">
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="17" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G14" s="12">
         <v>100192</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="12">
+      <c r="H14" s="19">
+        <v>105011</v>
+      </c>
+      <c r="I14" s="12">
         <v>26071478</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J14" s="12">
         <v>0.18</v>
-      </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="12">
-        <v>266169</v>
-      </c>
-      <c r="I14" s="12">
-        <v>125618422</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0.86</v>
       </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
@@ -2803,20 +2832,18 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="12"/>
       <c r="N15" s="19"/>
@@ -2826,32 +2853,35 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>193</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="G16" s="12">
-        <v>13011</v>
+        <v>266169</v>
+      </c>
+      <c r="H16" s="19">
+        <v>378349</v>
       </c>
       <c r="I16" s="12">
-        <v>9350268</v>
+        <v>125618422</v>
       </c>
       <c r="J16" s="12">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
@@ -2864,33 +2894,20 @@
       <c r="V16" s="19"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="19">
-        <v>788489</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="19">
-        <v>2347859917</v>
-      </c>
-      <c r="J17" s="19">
-        <v>16.13</v>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="H17" s="12">
+        <v>16</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -2903,27 +2920,31 @@
       <c r="V17" s="19"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1975106</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="19">
-        <v>6455016749</v>
-      </c>
-      <c r="J18" s="19">
-        <v>44.34</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="12">
+        <v>13011</v>
+      </c>
+      <c r="H18" s="19">
+        <v>13305</v>
+      </c>
+      <c r="I18" s="12">
+        <v>9350268</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.06</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
@@ -2936,20 +2957,37 @@
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="H19" s="30"/>
-      <c r="N19" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="A19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="19">
+        <v>788489</v>
+      </c>
+      <c r="H19" s="19">
+        <v>791177</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2347859917</v>
+      </c>
+      <c r="J19" s="19">
+        <v>16.13</v>
+      </c>
+      <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -2960,20 +2998,31 @@
       <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="H20" s="30"/>
-      <c r="N20" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1975106</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1991408</v>
+      </c>
+      <c r="I20" s="19">
+        <v>6455016749</v>
+      </c>
+      <c r="J20" s="19">
+        <v>44.34</v>
+      </c>
+      <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -2984,22 +3033,18 @@
       <c r="V20" s="19"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="H21" s="30"/>
-      <c r="N21" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="H21" s="23"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
@@ -3008,33 +3053,19 @@
       <c r="V21" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="9" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="19">
-        <v>371387</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="19">
-        <v>657665026</v>
-      </c>
-      <c r="J22" s="19">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>158</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="H22" s="23"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
@@ -3043,23 +3074,18 @@
       <c r="V22" s="19"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="9" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="N23" s="12" t="s">
-        <v>159</v>
-      </c>
+      <c r="H23" s="23"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
@@ -3068,21 +3094,31 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="9" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="N24" s="16" t="s">
-        <v>174</v>
+        <v>135</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="19">
+        <v>371387</v>
+      </c>
+      <c r="H24" s="19">
+        <v>374854</v>
+      </c>
+      <c r="I24" s="19">
+        <v>657665026</v>
+      </c>
+      <c r="J24" s="19">
+        <v>4.5199999999999996</v>
       </c>
       <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
@@ -3091,21 +3127,22 @@
       <c r="V24" s="19"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="N25" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
@@ -3114,23 +3151,20 @@
       <c r="V25" s="19"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="N26" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="31"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
@@ -3139,25 +3173,20 @@
       <c r="V26" s="19"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="N27" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="31"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -3166,21 +3195,25 @@
       <c r="V27" s="19"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="H28" s="12">
         <v>52</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="N28" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="31"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
@@ -3189,21 +3222,24 @@
       <c r="V28" s="19"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="D29" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="N29" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="31"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -3212,21 +3248,19 @@
       <c r="V29" s="19"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="14" t="s">
-        <v>54</v>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="N30" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="32"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -3235,21 +3269,20 @@
       <c r="V30" s="19"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="9" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="N31" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="31"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -3258,32 +3291,20 @@
       <c r="V31" s="19"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="12">
-        <v>99861</v>
-      </c>
-      <c r="I32" s="12">
-        <v>78239506</v>
-      </c>
-      <c r="J32" s="12">
-        <v>0.54</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -3292,21 +3313,20 @@
       <c r="V32" s="19"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="9" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="31"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -3315,19 +3335,34 @@
       <c r="V33" s="19"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
+      <c r="D34" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="12">
+        <v>99861</v>
+      </c>
+      <c r="H34" s="34">
+        <v>98061</v>
+      </c>
+      <c r="I34" s="12">
+        <v>78239506</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="31"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -3336,19 +3371,20 @@
       <c r="V34" s="19"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="29"/>
       <c r="D35" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="12"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
@@ -3357,26 +3393,16 @@
       <c r="V35" s="19"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="9" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="16">
-        <v>6591</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16">
-        <v>1265021</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0.01</v>
-      </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -3388,16 +3414,14 @@
       <c r="V36" s="19"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="27"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="9" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F37" s="12"/>
       <c r="N37" s="19"/>
@@ -3411,53 +3435,123 @@
       <c r="V37" s="19"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="16">
+        <v>6591</v>
+      </c>
+      <c r="H38" s="35">
+        <v>6727</v>
+      </c>
+      <c r="I38" s="16">
+        <v>1265021</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="17" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F40" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G40" s="12">
         <v>760109</v>
       </c>
-      <c r="I38" s="12">
+      <c r="H40" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="12">
         <v>362123519</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J40" s="12">
         <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="12">
+        <v>7233685</v>
+      </c>
+      <c r="H41" s="19">
+        <v>7460637</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="A17:A37"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="A19:A39"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,7 +3586,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>268</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3503,7 +3597,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>263</v>
       </c>
@@ -3512,7 +3606,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>264</v>
       </c>
@@ -3521,7 +3615,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>265</v>
       </c>
@@ -3530,7 +3624,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>266</v>
       </c>
@@ -3539,7 +3633,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4" t="s">
         <v>267</v>
       </c>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3A34C-6729-0845-9B62-4DFF60F3C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6E21E-BC7C-9F42-B99B-462770D548E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="37140" windowHeight="21100" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1479,6 +1479,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1489,29 +1495,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,22 +1900,22 @@
       <c r="H2" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="3">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1950,9 +1941,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>106</v>
       </c>
@@ -1976,8 +1967,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1992,10 +1983,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
         <v>102</v>
       </c>
@@ -2016,12 +2007,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="27" t="s">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2032,10 +2023,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
@@ -2053,10 +2044,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>88</v>
       </c>
@@ -2068,8 +2059,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
@@ -2081,8 +2072,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
@@ -2095,18 +2086,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="29" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="27" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2117,14 +2108,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
@@ -2202,7 +2193,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2219,11 +2210,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>235</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -2234,9 +2225,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="21" t="s">
         <v>176</v>
       </c>
@@ -2245,7 +2236,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2262,7 +2253,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3" t="s">
         <v>208</v>
       </c>
@@ -2277,7 +2268,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>226</v>
       </c>
@@ -2292,7 +2283,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>214</v>
       </c>
@@ -2310,7 +2301,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>259</v>
       </c>
@@ -2318,7 +2309,7 @@
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
@@ -2333,7 +2324,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2350,7 +2341,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
@@ -2362,7 +2353,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
@@ -2374,7 +2365,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3" t="s">
         <v>210</v>
       </c>
@@ -2480,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2582,13 +2573,13 @@
       <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2603,7 +2594,7 @@
       <c r="G3" s="12">
         <v>101373</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="24">
         <v>62249</v>
       </c>
       <c r="I3" s="12">
@@ -2614,9 +2605,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="9" t="s">
         <v>172</v>
       </c>
@@ -2627,9 +2618,9 @@
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2653,9 +2644,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2666,9 +2657,9 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
@@ -2681,7 +2672,7 @@
       <c r="G7" s="12">
         <v>178793</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="24">
         <v>178300</v>
       </c>
       <c r="I7" s="12">
@@ -2692,9 +2683,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="14" t="s">
         <v>185</v>
       </c>
@@ -2707,7 +2698,7 @@
       <c r="G8" s="12">
         <v>320703</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="24">
         <v>283964</v>
       </c>
       <c r="I8" s="12">
@@ -2719,9 +2710,9 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="9" t="s">
         <v>170</v>
       </c>
@@ -2733,9 +2724,9 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="9" t="s">
         <v>272</v>
       </c>
@@ -2747,9 +2738,9 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="9" t="s">
         <v>271</v>
       </c>
@@ -2761,9 +2752,9 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="9" t="s">
         <v>168</v>
       </c>
@@ -2775,9 +2766,9 @@
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="14" t="s">
         <v>183</v>
       </c>
@@ -2790,7 +2781,7 @@
       <c r="G13" s="12">
         <v>539870</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="24">
         <v>450050</v>
       </c>
       <c r="I13" s="12">
@@ -2801,9 +2792,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="17" t="s">
         <v>134</v>
       </c>
@@ -2834,8 +2825,8 @@
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
@@ -2855,8 +2846,8 @@
       <c r="T15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2894,8 +2885,8 @@
       <c r="V16" s="19"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
@@ -2920,11 +2911,11 @@
       <c r="V17" s="19"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="16" t="s">
         <v>134</v>
       </c>
@@ -2957,13 +2948,13 @@
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2998,9 +2989,9 @@
       <c r="V19" s="19"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
@@ -3033,9 +3024,9 @@
       <c r="V20" s="19"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -3053,9 +3044,9 @@
       <c r="V21" s="19"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
@@ -3074,9 +3065,9 @@
       <c r="V22" s="19"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
@@ -3094,9 +3085,9 @@
       <c r="V23" s="19"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="9" t="s">
         <v>134</v>
       </c>
@@ -3127,9 +3118,9 @@
       <c r="V24" s="19"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3139,10 +3130,7 @@
         <v>137</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="31"/>
+      <c r="O25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
@@ -3151,9 +3139,9 @@
       <c r="V25" s="19"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
@@ -3161,10 +3149,7 @@
         <v>138</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="31"/>
+      <c r="O26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
@@ -3173,9 +3158,9 @@
       <c r="V26" s="19"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="9" t="s">
         <v>46</v>
       </c>
@@ -3183,10 +3168,7 @@
         <v>139</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="31"/>
+      <c r="O27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
@@ -3195,8 +3177,8 @@
       <c r="V27" s="19"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="12" t="s">
         <v>47</v>
       </c>
@@ -3210,10 +3192,7 @@
       <c r="H28" s="12">
         <v>52</v>
       </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="31"/>
+      <c r="O28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
@@ -3222,11 +3201,11 @@
       <c r="V28" s="19"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -3236,10 +3215,8 @@
         <v>141</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="31"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
@@ -3248,9 +3225,9 @@
       <c r="V29" s="19"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="9" t="s">
         <v>52</v>
       </c>
@@ -3258,9 +3235,8 @@
         <v>142</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="32"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
@@ -3269,9 +3245,9 @@
       <c r="V30" s="19"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="9" t="s">
         <v>53</v>
       </c>
@@ -3279,10 +3255,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="31"/>
+      <c r="O31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
@@ -3291,9 +3264,9 @@
       <c r="V31" s="19"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="14" t="s">
         <v>54</v>
       </c>
@@ -3301,10 +3274,8 @@
         <v>144</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
@@ -3313,9 +3284,9 @@
       <c r="V32" s="19"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="9" t="s">
         <v>146</v>
       </c>
@@ -3323,10 +3294,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="31"/>
+      <c r="O33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
@@ -3335,9 +3303,9 @@
       <c r="V33" s="19"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="15" t="s">
         <v>134</v>
       </c>
@@ -3350,7 +3318,7 @@
       <c r="G34" s="12">
         <v>99861</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="24">
         <v>98061</v>
       </c>
       <c r="I34" s="12">
@@ -3359,10 +3327,7 @@
       <c r="J34" s="12">
         <v>0.54</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="31"/>
+      <c r="O34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -3371,11 +3336,11 @@
       <c r="V34" s="19"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
@@ -3393,9 +3358,9 @@
       <c r="V35" s="19"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
@@ -3414,9 +3379,9 @@
       <c r="V36" s="19"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="9" t="s">
         <v>58</v>
       </c>
@@ -3435,9 +3400,9 @@
       <c r="V37" s="19"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="9" t="s">
         <v>134</v>
       </c>
@@ -3448,7 +3413,7 @@
       <c r="G38" s="16">
         <v>6591</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="25">
         <v>6727</v>
       </c>
       <c r="I38" s="16">
@@ -3468,11 +3433,11 @@
       <c r="V38" s="19"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="28"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
@@ -3494,10 +3459,10 @@
       <c r="A40" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="17" t="s">
         <v>134</v>
       </c>
@@ -3531,16 +3496,13 @@
         <v>7460637</v>
       </c>
     </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H42" s="12">
+        <v>5539997</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B15"/>
@@ -3552,6 +3514,14 @@
     <mergeCell ref="B35:C38"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3586,7 +3556,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>268</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3597,7 +3567,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>263</v>
       </c>
@@ -3606,7 +3576,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>264</v>
       </c>
@@ -3615,7 +3585,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>265</v>
       </c>
@@ -3624,7 +3594,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>266</v>
       </c>
@@ -3633,7 +3603,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>267</v>
       </c>

--- a/undergraduate/Data.xlsx
+++ b/undergraduate/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/undergraduate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD6E21E-BC7C-9F42-B99B-462770D548E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBCBAD-1B93-7644-9614-B13A99A4A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="37140" windowHeight="21100" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="2" xr2:uid="{5173BF36-EAD6-4C48-B635-D9BE3B03D1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Wheats &amp; reference genome" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="285">
   <si>
     <t>Chrosome</t>
   </si>
@@ -1284,10 +1284,40 @@
     <t>pararetrovirus</t>
   </si>
   <si>
-    <t>1767010 DNA/CMC-EnSpm: 8</t>
-  </si>
-  <si>
     <t>Maverick (polinton)</t>
+  </si>
+  <si>
+    <t>Chinese Spring v1.0</t>
+  </si>
+  <si>
+    <t>http://repeatexplorer.org/repeatexplorer/wp-content/uploads/2018/10/Viridiplantae_v3.0.zip</t>
+  </si>
+  <si>
+    <t>REXdb</t>
+  </si>
+  <si>
+    <t>TE protein domain</t>
+  </si>
+  <si>
+    <t>Dfam</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>no_match</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>CS chr1A</t>
+  </si>
+  <si>
+    <t>EDTA chr1A</t>
+  </si>
+  <si>
+    <t>repeat_region</t>
   </si>
 </sst>
 </file>
@@ -1495,14 +1525,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,7 +1851,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2147,7 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="H13" t="s">
         <v>119</v>
@@ -2471,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BC068-FAEC-BC4E-A2CD-D1C4B290A952}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,45 +2513,48 @@
     <col min="2" max="2" width="16.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="12"/>
     <col min="4" max="4" width="20.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="12"/>
+    <col min="5" max="6" width="9.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
@@ -2538,48 +2571,54 @@
         <v>128</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="30"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="S2" s="32"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2588,26 +2627,32 @@
       <c r="E3" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="12">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1854</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="12">
+      <c r="I3" s="12">
         <v>101373</v>
       </c>
-      <c r="H3" s="24">
+      <c r="J3" s="24">
         <v>62249</v>
       </c>
-      <c r="I3" s="12">
+      <c r="K3" s="12">
         <v>41014659</v>
       </c>
-      <c r="J3" s="12">
+      <c r="L3" s="12">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9" t="s">
         <v>172</v>
       </c>
@@ -2615,38 +2660,46 @@
         <v>173</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12">
+        <v>29750</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4400</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="12">
+      <c r="I5" s="12">
         <v>1712031</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="J5" s="19">
+        <v>1767018</v>
+      </c>
+      <c r="K5" s="12">
         <v>2232934539</v>
       </c>
-      <c r="J5" s="12">
+      <c r="L5" s="12">
         <v>15.34</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2654,65 +2707,79 @@
         <v>167</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="12">
+        <v>1861</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4777</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="12">
+      <c r="I7" s="12">
         <v>178793</v>
       </c>
-      <c r="H7" s="24">
+      <c r="J7" s="24">
         <v>178300</v>
       </c>
-      <c r="I7" s="12">
+      <c r="K7" s="12">
         <v>85448253</v>
       </c>
-      <c r="J7" s="12">
+      <c r="L7" s="12">
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="14" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="12">
+        <v>3457</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5392</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="12">
+      <c r="I8" s="12">
         <v>320703</v>
       </c>
-      <c r="H8" s="24">
+      <c r="J8" s="24">
         <v>283964</v>
       </c>
-      <c r="I8" s="12">
+      <c r="K8" s="12">
         <v>148536409</v>
       </c>
-      <c r="J8" s="12">
+      <c r="L8" s="12">
         <v>1.02</v>
       </c>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="9" t="s">
         <v>170</v>
       </c>
@@ -2720,41 +2787,47 @@
         <v>171</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="H9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="9" t="s">
         <v>272</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="H10" s="12">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="12">
         <v>28</v>
       </c>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="9" t="s">
         <v>271</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="H11" s="12">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="12">
         <v>51</v>
       </c>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="9" t="s">
         <v>168</v>
       </c>
@@ -2762,71 +2835,85 @@
         <v>169</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="H12" s="22"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="22"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="14" t="s">
         <v>183</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="12">
+        <v>6945</v>
+      </c>
+      <c r="G13" s="12">
+        <v>11134</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="12">
+      <c r="I13" s="12">
         <v>539870</v>
       </c>
-      <c r="H13" s="24">
+      <c r="J13" s="24">
         <v>450050</v>
       </c>
-      <c r="I13" s="12">
+      <c r="K13" s="12">
         <v>188318911</v>
       </c>
-      <c r="J13" s="12">
+      <c r="L13" s="12">
         <v>1.29</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="17" t="s">
         <v>134</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="16">
+        <v>4331</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G14" s="12">
+      <c r="I14" s="12">
         <v>100192</v>
       </c>
-      <c r="H14" s="19">
+      <c r="J14" s="19">
         <v>105011</v>
       </c>
-      <c r="I14" s="12">
+      <c r="K14" s="12">
         <v>26071478</v>
       </c>
-      <c r="J14" s="12">
+      <c r="L14" s="12">
         <v>0.18</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
@@ -2837,17 +2924,19 @@
         <v>162</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -2859,23 +2948,27 @@
       <c r="E16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="12">
+        <v>27</v>
+      </c>
+      <c r="G16" s="12">
+        <v>16490</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="12">
+      <c r="I16" s="12">
         <v>266169</v>
       </c>
-      <c r="H16" s="19">
+      <c r="J16" s="19">
         <v>378349</v>
       </c>
-      <c r="I16" s="12">
+      <c r="K16" s="12">
         <v>125618422</v>
       </c>
-      <c r="J16" s="12">
+      <c r="L16" s="12">
         <v>0.86</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -2883,25 +2976,27 @@
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+    </row>
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>163</v>
       </c>
       <c r="F17" s="12"/>
-      <c r="H17" s="12">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="12">
         <v>16</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -2909,36 +3004,42 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="16" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="16">
+        <v>482</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="12">
+      <c r="I18" s="12">
         <v>13011</v>
       </c>
-      <c r="H18" s="19">
+      <c r="J18" s="19">
         <v>13305</v>
       </c>
-      <c r="I18" s="12">
+      <c r="K18" s="12">
         <v>9350268</v>
       </c>
-      <c r="J18" s="12">
+      <c r="L18" s="12">
         <v>0.06</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -2946,15 +3047,17 @@
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2963,23 +3066,27 @@
       <c r="E19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="11">
+        <v>22463</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4947</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G19" s="19">
+      <c r="I19" s="19">
         <v>788489</v>
       </c>
-      <c r="H19" s="19">
+      <c r="J19" s="19">
         <v>791177</v>
       </c>
-      <c r="I19" s="19">
+      <c r="K19" s="19">
         <v>2347859917</v>
       </c>
-      <c r="J19" s="19">
+      <c r="L19" s="19">
         <v>16.13</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -2987,34 +3094,40 @@
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12">
+        <v>60531</v>
+      </c>
+      <c r="G20" s="12">
+        <v>11215</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="19">
+      <c r="I20" s="19">
         <v>1975106</v>
       </c>
-      <c r="H20" s="19">
+      <c r="J20" s="19">
         <v>1991408</v>
       </c>
-      <c r="I20" s="19">
+      <c r="K20" s="19">
         <v>6455016749</v>
       </c>
-      <c r="J20" s="19">
+      <c r="L20" s="19">
         <v>44.34</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -3022,11 +3135,13 @@
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+    </row>
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="9" t="s">
         <v>40</v>
       </c>
@@ -3034,19 +3149,21 @@
         <v>131</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="H21" s="23"/>
-      <c r="O21" s="19"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="23"/>
       <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+    </row>
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="9" t="s">
         <v>41</v>
       </c>
@@ -3054,20 +3171,22 @@
         <v>132</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="H22" s="23"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="19"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="23"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
@@ -3075,52 +3194,60 @@
         <v>133</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="H23" s="23"/>
-      <c r="O23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="23"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="12">
+        <v>5918</v>
+      </c>
+      <c r="G24" s="12">
+        <v>7257</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="19">
+      <c r="I24" s="19">
         <v>371387</v>
       </c>
-      <c r="H24" s="19">
+      <c r="J24" s="19">
         <v>374854</v>
       </c>
-      <c r="I24" s="19">
+      <c r="K24" s="19">
         <v>657665026</v>
       </c>
-      <c r="J24" s="19">
+      <c r="L24" s="19">
         <v>4.5199999999999996</v>
       </c>
-      <c r="O24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+    </row>
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -3130,18 +3257,20 @@
         <v>137</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="O25" s="19"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+    </row>
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="9" t="s">
         <v>45</v>
       </c>
@@ -3149,18 +3278,20 @@
         <v>138</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="O26" s="19"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+    </row>
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="9" t="s">
         <v>46</v>
       </c>
@@ -3168,17 +3299,19 @@
         <v>139</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="O27" s="19"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+    </row>
+    <row r="28" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="12" t="s">
         <v>47</v>
       </c>
@@ -3189,23 +3322,25 @@
         <v>140</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="H28" s="12">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="12">
         <v>52</v>
       </c>
-      <c r="O28" s="19"/>
       <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+    </row>
+    <row r="29" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -3215,19 +3350,21 @@
         <v>141</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="19"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="P29" s="11"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+    </row>
+    <row r="30" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="9" t="s">
         <v>52</v>
       </c>
@@ -3235,19 +3372,21 @@
         <v>142</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="19"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="P30" s="11"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+    </row>
+    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="9" t="s">
         <v>53</v>
       </c>
@@ -3255,18 +3394,20 @@
         <v>143</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="O31" s="19"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+    </row>
+    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="14" t="s">
         <v>54</v>
       </c>
@@ -3274,19 +3415,21 @@
         <v>144</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+    </row>
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="9" t="s">
         <v>146</v>
       </c>
@@ -3294,53 +3437,61 @@
         <v>145</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="O33" s="19"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="16">
+        <v>4437</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1306</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="12">
+      <c r="I34" s="12">
         <v>99861</v>
       </c>
-      <c r="H34" s="24">
+      <c r="J34" s="24">
         <v>98061</v>
       </c>
-      <c r="I34" s="12">
+      <c r="K34" s="12">
         <v>78239506</v>
       </c>
-      <c r="J34" s="12">
+      <c r="L34" s="12">
         <v>0.54</v>
       </c>
-      <c r="O34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32" t="s">
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+    </row>
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="9" t="s">
         <v>56</v>
       </c>
@@ -3348,19 +3499,21 @@
         <v>148</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+    </row>
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="9" t="s">
         <v>57</v>
       </c>
@@ -3368,8 +3521,8 @@
         <v>149</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
@@ -3377,11 +3530,13 @@
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="9" t="s">
         <v>58</v>
       </c>
@@ -3389,8 +3544,8 @@
         <v>150</v>
       </c>
       <c r="F37" s="12"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -3398,32 +3553,38 @@
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="16">
+      <c r="F38" s="12">
+        <v>271</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="16">
         <v>6591</v>
       </c>
-      <c r="H38" s="25">
+      <c r="J38" s="25">
         <v>6727</v>
       </c>
-      <c r="I38" s="16">
+      <c r="K38" s="16">
         <v>1265021</v>
       </c>
-      <c r="J38" s="16">
+      <c r="L38" s="16">
         <v>0.01</v>
       </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -3431,13 +3592,15 @@
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
       <c r="V38" s="19"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31" t="s">
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+    </row>
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="9" t="s">
         <v>134</v>
       </c>
@@ -3445,8 +3608,8 @@
         <v>153</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -3454,55 +3617,108 @@
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="17" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="16">
+        <v>7655</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G40" s="12">
+      <c r="I40" s="12">
         <v>760109</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="J40" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="I40" s="12">
+      <c r="K40" s="12">
         <v>362123519</v>
       </c>
-      <c r="J40" s="12">
+      <c r="L40" s="12">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="12">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12">
         <v>7233685</v>
       </c>
-      <c r="H41" s="19">
+      <c r="J41" s="19">
         <v>7460637</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H42" s="12">
+        <v>309272</v>
+      </c>
+      <c r="J42" s="12">
         <v>5539997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E43" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1832</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E44" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="12">
+        <v>52847</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E45" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>240500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B15"/>
@@ -3514,14 +3730,6 @@
     <mergeCell ref="B35:C38"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19502A9-FB38-5841-8BC1-FF47C4C2E941}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3544,7 +3752,7 @@
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
@@ -3554,8 +3762,11 @@
       <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>268</v>
       </c>
@@ -3566,7 +3777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="4" t="s">
         <v>263</v>
@@ -3575,7 +3786,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>264</v>
@@ -3584,7 +3795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>265</v>
@@ -3593,7 +3804,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="4" t="s">
         <v>266</v>
@@ -3602,7 +3813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>267</v>
@@ -3611,9 +3822,41 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
